--- a/examples/pirna_model/results.xlsx
+++ b/examples/pirna_model/results.xlsx
@@ -34,7 +34,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="results" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Ralf/Desktop/results.csv" decimal="," thousands="." tab="0" semicolon="1">
+    <textPr fileType="mac" sourceFile="/Users/Ralf/Desktop/results.csv" decimal="," thousands="." tab="0" semicolon="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="377">
   <si>
     <t>date</t>
   </si>
@@ -1180,15 +1180,6 @@
   </si>
   <si>
     <t>185.0</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Scenario_0</t>
-  </si>
-  <si>
-    <t>Scenario_1</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1188,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1254,7 +1245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1285,8 +1276,12 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3176,11 +3171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1803778720"/>
-        <c:axId val="-2049641296"/>
+        <c:axId val="-2091925744"/>
+        <c:axId val="-2104340832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1803778720"/>
+        <c:axId val="-2091925744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3200,6 +3195,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3236,12 +3232,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049641296"/>
+        <c:crossAx val="-2104340832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2049641296"/>
+        <c:axId val="-2104340832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3297,7 +3293,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1803778720"/>
+        <c:crossAx val="-2091925744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10414,2061 +10410,2622 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="D186" sqref="B2:D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
         <v>41792</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>110.63200378400001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="14">
         <v>110.629997253</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="D2" s="14">
+        <v>110.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>41793</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="14">
         <v>110.565002441</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="14">
         <v>110.564002991</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="D3" s="14">
+        <v>110.560997009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>41794</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
         <v>110.49800109900001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="14">
         <v>110.49700164799999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="D4" s="14">
+        <v>110.494003296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>41795</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>110.42900085399999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="14">
         <v>110.428001404</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="D5" s="14">
+        <v>110.42500305199999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>41796</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>110.302001953</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="14">
         <v>110.302001953</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="D6" s="14">
+        <v>110.30000305199999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>41797</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="14">
         <v>110.162002563</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="14">
         <v>110.162002563</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="D7" s="14">
+        <v>110.16000366199999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>41798</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <v>110.01799774200001</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="14">
         <v>110.01699829099999</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="D8" s="14">
+        <v>110.013999939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>41799</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>109.87200164799999</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="14">
         <v>109.871002197</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="D9" s="14">
+        <v>109.866996765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
         <v>41800</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="14">
         <v>109.778999329</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="14">
         <v>109.777000427</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="D10" s="14">
+        <v>109.77100372300001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>41801</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>109.676002502</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="14">
         <v>109.672996521</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="D11" s="14">
+        <v>109.667999268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
         <v>41802</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="14">
         <v>109.61000061</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="14">
         <v>109.60700225799999</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="D12" s="14">
+        <v>109.600997925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
         <v>41803</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <v>109.549003601</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="14">
         <v>109.544998169</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="D13" s="14">
+        <v>109.540000916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
         <v>41804</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="14">
         <v>109.489997864</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="14">
         <v>109.486000061</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="D14" s="14">
+        <v>109.481002808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
         <v>41805</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="14">
         <v>109.43099975600001</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="14">
         <v>109.428001404</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="D15" s="14">
+        <v>109.422996521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
         <v>41806</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="14">
         <v>109.400001526</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="14">
         <v>109.39700317400001</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="D16" s="14">
+        <v>109.39199829099999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
         <v>41807</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="14">
         <v>109.383003235</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="14">
         <v>109.379997253</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="D17" s="14">
+        <v>109.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
         <v>41808</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="14">
         <v>109.365997314</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="14">
         <v>109.36299896200001</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="D18" s="14">
+        <v>109.35800170900001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
         <v>41809</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="14">
         <v>109.355003357</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="14">
         <v>109.351997375</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="D19" s="14">
+        <v>109.347000122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
         <v>41810</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="14">
         <v>109.334999084</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="14">
         <v>109.332000732</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="D20" s="14">
+        <v>109.327003479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
         <v>41811</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="14">
         <v>109.31300354</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="14">
         <v>109.309997559</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="D21" s="14">
+        <v>109.30500030499999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
         <v>41812</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="14">
         <v>109.290000916</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="14">
         <v>109.287002563</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="D22" s="14">
+        <v>109.28199768100001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
         <v>41813</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="14">
         <v>109.30400085399999</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="14">
         <v>109.301002502</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="D23" s="14">
+        <v>109.29699707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
         <v>41814</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="14">
         <v>109.303001404</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="14">
         <v>109.30000305199999</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="D24" s="14">
+        <v>109.29599761999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
         <v>41815</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="14">
         <v>109.32099914600001</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="14">
         <v>109.31900024399999</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="D25" s="14">
+        <v>109.315002441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
         <v>41816</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="14">
         <v>109.37300109900001</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="14">
         <v>109.371002197</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="D26" s="14">
+        <v>109.365997314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
         <v>41817</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="14">
         <v>109.38200378400001</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="14">
         <v>109.379997253</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="D27" s="14">
+        <v>109.375999451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
         <v>41818</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="14">
         <v>109.38200378400001</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="14">
         <v>109.379997253</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="D28" s="14">
+        <v>109.375999451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
         <v>41819</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="14">
         <v>109.379997253</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="14">
         <v>109.37699890099999</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="D29" s="14">
+        <v>109.374000549</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
         <v>41820</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="14">
         <v>109.379997253</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="14">
         <v>109.37699890099999</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="D30" s="14">
+        <v>109.374000549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
         <v>41821</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="14">
         <v>109.374000549</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="14">
         <v>109.371002197</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="D31" s="14">
+        <v>109.366996765</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
         <v>41822</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="14">
         <v>109.36799621599999</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="14">
         <v>109.364997864</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="D32" s="14">
+        <v>109.361999512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
         <v>41823</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="14">
         <v>109.348999023</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="14">
         <v>109.347000122</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="D33" s="14">
+        <v>109.34300231899999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
         <v>41824</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="14">
         <v>109.327003479</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="14">
         <v>109.32499694800001</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="D34" s="14">
+        <v>109.32099914600001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
         <v>41825</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="14">
         <v>109.30400085399999</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="14">
         <v>109.302001953</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="D35" s="14">
+        <v>109.297996521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
         <v>41826</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="14">
         <v>109.28099822999999</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="14">
         <v>109.277999878</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="D36" s="14">
+        <v>109.274002075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
         <v>41827</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="14">
         <v>109.27200317400001</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="14">
         <v>109.269996643</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="D37" s="14">
+        <v>109.26599883999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
         <v>41828</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="14">
         <v>109.371002197</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="14">
         <v>109.369003296</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="D38" s="14">
+        <v>109.366996765</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
         <v>41829</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="14">
         <v>109.533996582</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="14">
         <v>109.53199768100001</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="D39" s="14">
+        <v>109.529998779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
         <v>41830</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="14">
         <v>109.676002502</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="14">
         <v>109.674003601</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="D40" s="14">
+        <v>109.67199707</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
         <v>41831</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="14">
         <v>109.691001892</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="14">
         <v>109.690002441</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="D41" s="14">
+        <v>109.68800354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
         <v>41832</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="14">
         <v>109.676002502</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="14">
         <v>109.674003601</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="D42" s="14">
+        <v>109.67199707</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
         <v>41833</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="14">
         <v>109.652000427</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="14">
         <v>109.649002075</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="D43" s="14">
+        <v>109.644996643</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
         <v>41834</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="14">
         <v>109.583000183</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="14">
         <v>109.581001282</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="D44" s="14">
+        <v>109.577003479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
         <v>41835</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="14">
         <v>109.53600311300001</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="14">
         <v>109.533996582</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="D45" s="14">
+        <v>109.529998779</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
         <v>41836</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="14">
         <v>109.47899627699999</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="14">
         <v>109.476997375</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="D46" s="14">
+        <v>109.472000122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
         <v>41837</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="14">
         <v>109.426002502</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="14">
         <v>109.424003601</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="D47" s="14">
+        <v>109.419998169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
         <v>41838</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="14">
         <v>109.39600372300001</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="14">
         <v>109.393997192</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="D48" s="14">
+        <v>109.388999939</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
         <v>41839</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="14">
         <v>109.371002197</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="14">
         <v>109.36799621599999</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="D49" s="14">
+        <v>109.363998413</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
         <v>41840</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="14">
         <v>109.346000671</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="14">
         <v>109.34400177000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="D50" s="14">
+        <v>109.33899688699999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
         <v>41841</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="14">
         <v>109.334999084</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="14">
         <v>109.332000732</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="D51" s="14">
+        <v>109.32800293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
         <v>41842</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="14">
         <v>109.458000183</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="14">
         <v>109.456001282</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="D52" s="14">
+        <v>109.45300293</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="12">
         <v>41843</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="14">
         <v>109.539001465</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="14">
         <v>109.537002563</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="D53" s="14">
+        <v>109.532997131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="12">
         <v>41844</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="14">
         <v>109.54599761999999</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="14">
         <v>109.543998718</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="D54" s="14">
+        <v>109.54100036600001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
         <v>41845</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="14">
         <v>109.532997131</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="14">
         <v>109.53099822999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="D55" s="14">
+        <v>109.527999878</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="12">
         <v>41846</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="14">
         <v>109.50199890099999</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="14">
         <v>109.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="D56" s="14">
+        <v>109.49700164799999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
         <v>41847</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="14">
         <v>109.467002869</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="14">
         <v>109.46499633800001</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="D57" s="14">
+        <v>109.461997986</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="12">
         <v>41848</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="14">
         <v>109.448997498</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="14">
         <v>109.446998596</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+      <c r="D58" s="14">
+        <v>109.443000793</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="12">
         <v>41849</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="14">
         <v>109.47899627699999</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="14">
         <v>109.47799682599999</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="D59" s="14">
+        <v>109.474998474</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="12">
         <v>41850</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="14">
         <v>109.523002625</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="14">
         <v>109.52100372300001</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="D60" s="14">
+        <v>109.51799774200001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="12">
         <v>41851</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="14">
         <v>109.48300170900001</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="14">
         <v>109.481002808</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="D61" s="14">
+        <v>109.47799682599999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="12">
         <v>41852</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="14">
         <v>109.503997803</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="14">
         <v>109.50199890099999</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="D62" s="14">
+        <v>109.499000549</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="12">
         <v>41853</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="14">
         <v>109.51699829099999</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="14">
         <v>109.51499939</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="D63" s="14">
+        <v>109.51200103799999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="12">
         <v>41854</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="14">
         <v>109.527999878</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="14">
         <v>109.526000977</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="D64" s="14">
+        <v>109.52200317400001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="12">
         <v>41855</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="14">
         <v>109.538002014</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="14">
         <v>109.537002563</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+      <c r="D65" s="14">
+        <v>109.533996582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="12">
         <v>41856</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="14">
         <v>109.598999023</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="14">
         <v>109.597999573</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+      <c r="D66" s="14">
+        <v>109.596000671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="12">
         <v>41857</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="14">
         <v>109.64099883999999</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="14">
         <v>109.63999939</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+      <c r="D67" s="14">
+        <v>109.63700103799999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="12">
         <v>41858</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="14">
         <v>109.591003418</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="14">
         <v>109.58999633800001</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="D68" s="14">
+        <v>109.585998535</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="12">
         <v>41859</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="14">
         <v>109.513999939</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="14">
         <v>109.51200103799999</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="D69" s="14">
+        <v>109.509002686</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="12">
         <v>41860</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="14">
         <v>109.466003418</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="14">
         <v>109.46399688699999</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="D70" s="14">
+        <v>109.459999084</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="12">
         <v>41861</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="14">
         <v>109.414001465</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="14">
         <v>109.412002563</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+      <c r="D71" s="14">
+        <v>109.407997131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="12">
         <v>41862</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="14">
         <v>109.39600372300001</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="14">
         <v>109.394996643</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+      <c r="D72" s="14">
+        <v>109.39099883999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="12">
         <v>41863</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="14">
         <v>109.418998718</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="14">
         <v>109.416999817</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+      <c r="D73" s="14">
+        <v>109.413002014</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="12">
         <v>41864</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="14">
         <v>109.402000427</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="14">
         <v>109.400001526</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+      <c r="D74" s="14">
+        <v>109.39700317400001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="12">
         <v>41865</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="14">
         <v>109.39299774200001</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="14">
         <v>109.39099883999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+      <c r="D75" s="14">
+        <v>109.388000488</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="12">
         <v>41866</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="14">
         <v>109.42099761999999</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="14">
         <v>109.418998718</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+      <c r="D76" s="14">
+        <v>109.41600036600001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="12">
         <v>41867</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="14">
         <v>109.418998718</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="14">
         <v>109.416999817</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="D77" s="14">
+        <v>109.414001465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="12">
         <v>41868</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="14">
         <v>109.432998657</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="14">
         <v>109.43099975600001</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+      <c r="D78" s="14">
+        <v>109.428001404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="12">
         <v>41869</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="14">
         <v>109.446998596</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="14">
         <v>109.44499969500001</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+      <c r="D79" s="14">
+        <v>109.442001343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="12">
         <v>41870</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B80" s="14">
         <v>109.434997559</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="14">
         <v>109.432998657</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+      <c r="D80" s="14">
+        <v>109.43000030499999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="12">
         <v>41871</v>
       </c>
-      <c r="B81" s="12">
+      <c r="B81" s="14">
         <v>109.42099761999999</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="14">
         <v>109.418998718</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+      <c r="D81" s="14">
+        <v>109.41600036600001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="12">
         <v>41872</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="14">
         <v>109.40599822999999</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="14">
         <v>109.403999329</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
+      <c r="D82" s="14">
+        <v>109.401000977</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="12">
         <v>41873</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B83" s="14">
         <v>109.39199829099999</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="14">
         <v>109.38999939</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+      <c r="D83" s="14">
+        <v>109.38700103799999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="12">
         <v>41874</v>
       </c>
-      <c r="B84" s="12">
+      <c r="B84" s="14">
         <v>109.378997803</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="14">
         <v>109.37699890099999</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+      <c r="D84" s="14">
+        <v>109.37300109900001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="12">
         <v>41875</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B85" s="14">
         <v>109.364997864</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="14">
         <v>109.36299896200001</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+      <c r="D85" s="14">
+        <v>109.36000061</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="12">
         <v>41876</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B86" s="14">
         <v>109.37699890099999</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="14">
         <v>109.375</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
+      <c r="D86" s="14">
+        <v>109.37200164799999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="12">
         <v>41877</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="14">
         <v>109.38700103799999</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="14">
         <v>109.385002136</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+      <c r="D87" s="14">
+        <v>109.38200378400001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="12">
         <v>41878</v>
       </c>
-      <c r="B88" s="12">
+      <c r="B88" s="14">
         <v>109.41100311300001</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="14">
         <v>109.408996582</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
+      <c r="D88" s="14">
+        <v>109.40599822999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="12">
         <v>41879</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B89" s="14">
         <v>109.40699768100001</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="14">
         <v>109.40699768100001</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+      <c r="D89" s="14">
+        <v>109.404998779</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="12">
         <v>41880</v>
       </c>
-      <c r="B90" s="12">
+      <c r="B90" s="14">
         <v>109.48200225799999</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="14">
         <v>109.480003357</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+      <c r="D90" s="14">
+        <v>109.476997375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="12">
         <v>41881</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="14">
         <v>109.49800109900001</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="14">
         <v>109.496002197</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+      <c r="D91" s="14">
+        <v>109.494003296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="12">
         <v>41882</v>
       </c>
-      <c r="B92" s="12">
+      <c r="B92" s="14">
         <v>109.503997803</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="14">
         <v>109.50199890099999</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
+      <c r="D92" s="14">
+        <v>109.499000549</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="12">
         <v>41883</v>
       </c>
-      <c r="B93" s="12">
+      <c r="B93" s="14">
         <v>109.539001465</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="14">
         <v>109.538002014</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
+      <c r="D93" s="14">
+        <v>109.53600311300001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="12">
         <v>41884</v>
       </c>
-      <c r="B94" s="12">
+      <c r="B94" s="14">
         <v>109.635002136</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="14">
         <v>109.633003235</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
+      <c r="D94" s="14">
+        <v>109.63200378400001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="12">
         <v>41885</v>
       </c>
-      <c r="B95" s="12">
+      <c r="B95" s="14">
         <v>109.755996704</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="14">
         <v>109.755996704</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
+      <c r="D95" s="14">
+        <v>109.754997253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="12">
         <v>41886</v>
       </c>
-      <c r="B96" s="12">
+      <c r="B96" s="14">
         <v>109.794998169</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="14">
         <v>109.794998169</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+      <c r="D96" s="14">
+        <v>109.793998718</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="12">
         <v>41887</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="14">
         <v>109.80400085399999</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="14">
         <v>109.80400085399999</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
+      <c r="D97" s="14">
+        <v>109.803001404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="12">
         <v>41888</v>
       </c>
-      <c r="B98" s="12">
+      <c r="B98" s="14">
         <v>109.808998108</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="14">
         <v>109.807998657</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
+      <c r="D98" s="14">
+        <v>109.807998657</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="12">
         <v>41889</v>
       </c>
-      <c r="B99" s="12">
+      <c r="B99" s="14">
         <v>109.81199646</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="14">
         <v>109.81199646</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
+      <c r="D99" s="14">
+        <v>109.810997009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="12">
         <v>41890</v>
       </c>
-      <c r="B100" s="12">
+      <c r="B100" s="14">
         <v>109.816001892</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="14">
         <v>109.815002441</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+      <c r="D100" s="14">
+        <v>109.814002991</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="12">
         <v>41891</v>
       </c>
-      <c r="B101" s="12">
+      <c r="B101" s="14">
         <v>109.817001343</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="14">
         <v>109.816001892</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
+      <c r="D101" s="14">
+        <v>109.815002441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="12">
         <v>41892</v>
       </c>
-      <c r="B102" s="12">
+      <c r="B102" s="14">
         <v>109.82900238000001</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="14">
         <v>109.82800293</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
+      <c r="D102" s="14">
+        <v>109.825996399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="12">
         <v>41893</v>
       </c>
-      <c r="B103" s="12">
+      <c r="B103" s="14">
         <v>109.82099914600001</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="14">
         <v>109.81999969500001</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+      <c r="D103" s="14">
+        <v>109.81900024399999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="12">
         <v>41894</v>
       </c>
-      <c r="B104" s="12">
+      <c r="B104" s="14">
         <v>109.93099975600001</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="14">
         <v>109.92900085399999</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
+      <c r="D104" s="14">
+        <v>109.927001953</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="12">
         <v>41895</v>
       </c>
-      <c r="B105" s="12">
+      <c r="B105" s="14">
         <v>110.068000793</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="14">
         <v>110.067001343</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
+      <c r="D105" s="14">
+        <v>110.065002441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="12">
         <v>41896</v>
       </c>
-      <c r="B106" s="12">
+      <c r="B106" s="14">
         <v>110.212997437</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="14">
         <v>110.211997986</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
+      <c r="D106" s="14">
+        <v>110.210998535</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="12">
         <v>41897</v>
       </c>
-      <c r="B107" s="12">
+      <c r="B107" s="14">
         <v>110.29599761999999</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="14">
         <v>110.29699707</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
+      <c r="D107" s="14">
+        <v>110.30000305199999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="12">
         <v>41898</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="14">
         <v>110.418998718</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="14">
         <v>110.418998718</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
+      <c r="D108" s="14">
+        <v>110.42199707</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="12">
         <v>41899</v>
       </c>
-      <c r="B109" s="12">
+      <c r="B109" s="14">
         <v>110.42199707</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="14">
         <v>110.422996521</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
+      <c r="D109" s="14">
+        <v>110.42500305199999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="12">
         <v>41900</v>
       </c>
-      <c r="B110" s="12">
+      <c r="B110" s="14">
         <v>110.412002563</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="14">
         <v>110.413002014</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
+      <c r="D110" s="14">
+        <v>110.415000916</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="12">
         <v>41901</v>
       </c>
-      <c r="B111" s="12">
+      <c r="B111" s="14">
         <v>110.402999878</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="14">
         <v>110.402999878</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
+      <c r="D111" s="14">
+        <v>110.404998779</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="12">
         <v>41902</v>
       </c>
-      <c r="B112" s="12">
+      <c r="B112" s="14">
         <v>110.393997192</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="14">
         <v>110.393997192</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
+      <c r="D112" s="14">
+        <v>110.394996643</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="12">
         <v>41903</v>
       </c>
-      <c r="B113" s="12">
+      <c r="B113" s="14">
         <v>110.385002136</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="14">
         <v>110.386001587</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
+      <c r="D113" s="14">
+        <v>110.38700103799999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="12">
         <v>41904</v>
       </c>
-      <c r="B114" s="12">
+      <c r="B114" s="14">
         <v>110.41000366199999</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="14">
         <v>110.41000366199999</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
+      <c r="D114" s="14">
+        <v>110.41100311300001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="12">
         <v>41905</v>
       </c>
-      <c r="B115" s="12">
+      <c r="B115" s="14">
         <v>110.442001343</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="14">
         <v>110.442001343</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
+      <c r="D115" s="14">
+        <v>110.442001343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="12">
         <v>41906</v>
       </c>
-      <c r="B116" s="12">
+      <c r="B116" s="14">
         <v>110.432998657</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="14">
         <v>110.432998657</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
+      <c r="D116" s="14">
+        <v>110.433998108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="12">
         <v>41907</v>
       </c>
-      <c r="B117" s="12">
+      <c r="B117" s="14">
         <v>110.416999817</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="14">
         <v>110.417999268</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
+      <c r="D117" s="14">
+        <v>110.417999268</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="12">
         <v>41908</v>
       </c>
-      <c r="B118" s="12">
+      <c r="B118" s="14">
         <v>110.365997314</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="14">
         <v>110.365997314</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
+      <c r="D118" s="14">
+        <v>110.364997864</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="12">
         <v>41909</v>
       </c>
-      <c r="B119" s="12">
+      <c r="B119" s="14">
         <v>110.30400085399999</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="14">
         <v>110.30400085399999</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
+      <c r="D119" s="14">
+        <v>110.302001953</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="12">
         <v>41910</v>
       </c>
-      <c r="B120" s="12">
+      <c r="B120" s="14">
         <v>110.239997864</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="14">
         <v>110.238998413</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
+      <c r="D120" s="14">
+        <v>110.23500061</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="12">
         <v>41911</v>
       </c>
-      <c r="B121" s="12">
+      <c r="B121" s="14">
         <v>110.225997925</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="14">
         <v>110.224998474</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
+      <c r="D121" s="14">
+        <v>110.222000122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="12">
         <v>41912</v>
       </c>
-      <c r="B122" s="12">
+      <c r="B122" s="14">
         <v>110.220001221</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="14">
         <v>110.21900177000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
+      <c r="D122" s="14">
+        <v>110.217002869</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="12">
         <v>41913</v>
       </c>
-      <c r="B123" s="12">
+      <c r="B123" s="14">
         <v>110.211997986</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="14">
         <v>110.210998535</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
+      <c r="D123" s="14">
+        <v>110.20899963399999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="12">
         <v>41914</v>
       </c>
-      <c r="B124" s="12">
+      <c r="B124" s="14">
         <v>110.21900177000001</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="14">
         <v>110.21800231899999</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
+      <c r="D124" s="14">
+        <v>110.216003418</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="12">
         <v>41915</v>
       </c>
-      <c r="B125" s="12">
+      <c r="B125" s="14">
         <v>110.22899627699999</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="14">
         <v>110.22899627699999</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
+      <c r="D125" s="14">
+        <v>110.226997375</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="12">
         <v>41916</v>
       </c>
-      <c r="B126" s="12">
+      <c r="B126" s="14">
         <v>110.240997314</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="14">
         <v>110.240997314</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
+      <c r="D126" s="14">
+        <v>110.238998413</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="12">
         <v>41917</v>
       </c>
-      <c r="B127" s="12">
+      <c r="B127" s="14">
         <v>110.25299835200001</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="14">
         <v>110.25299835200001</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
+      <c r="D127" s="14">
+        <v>110.25199890099999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="12">
         <v>41918</v>
       </c>
-      <c r="B128" s="12">
+      <c r="B128" s="14">
         <v>110.223999023</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="14">
         <v>110.222000122</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
+      <c r="D128" s="14">
+        <v>110.217002869</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="12">
         <v>41919</v>
       </c>
-      <c r="B129" s="12">
+      <c r="B129" s="14">
         <v>110.047996521</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="14">
         <v>110.04699707</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
+      <c r="D129" s="14">
+        <v>110.042999268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="12">
         <v>41920</v>
       </c>
-      <c r="B130" s="12">
+      <c r="B130" s="14">
         <v>109.928001404</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="14">
         <v>109.927001953</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
+      <c r="D130" s="14">
+        <v>109.924003601</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="12">
         <v>41921</v>
       </c>
-      <c r="B131" s="12">
+      <c r="B131" s="14">
         <v>109.88999939</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="14">
         <v>109.888000488</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
+      <c r="D131" s="14">
+        <v>109.884002686</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="12">
         <v>41922</v>
       </c>
-      <c r="B132" s="12">
+      <c r="B132" s="14">
         <v>109.86299896200001</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="14">
         <v>109.861000061</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
+      <c r="D132" s="14">
+        <v>109.85700225799999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="12">
         <v>41923</v>
       </c>
-      <c r="B133" s="12">
+      <c r="B133" s="14">
         <v>109.83999633800001</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="14">
         <v>109.837997437</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
+      <c r="D133" s="14">
+        <v>109.834999084</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="12">
         <v>41924</v>
       </c>
-      <c r="B134" s="12">
+      <c r="B134" s="14">
         <v>109.81900024399999</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="14">
         <v>109.817001343</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
+      <c r="D134" s="14">
+        <v>109.814002991</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="12">
         <v>41925</v>
       </c>
-      <c r="B135" s="12">
+      <c r="B135" s="14">
         <v>109.83899688699999</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="14">
         <v>109.836997986</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="D135" s="14">
+        <v>109.83399963399999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="12">
         <v>41926</v>
       </c>
-      <c r="B136" s="12">
+      <c r="B136" s="14">
         <v>109.904998779</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="14">
         <v>109.902999878</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="D136" s="14">
+        <v>109.901000977</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="12">
         <v>41927</v>
       </c>
-      <c r="B137" s="12">
+      <c r="B137" s="14">
         <v>109.940002441</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="14">
         <v>109.939002991</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="D137" s="14">
+        <v>109.93699646</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="12">
         <v>41928</v>
       </c>
-      <c r="B138" s="12">
+      <c r="B138" s="14">
         <v>109.98400116000001</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="14">
         <v>109.98300170900001</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="D138" s="14">
+        <v>109.981002808</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="12">
         <v>41929</v>
       </c>
-      <c r="B139" s="12">
+      <c r="B139" s="14">
         <v>110.041999817</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="14">
         <v>110.04100036600001</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="D139" s="14">
+        <v>110.038002014</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="12">
         <v>41930</v>
       </c>
-      <c r="B140" s="12">
+      <c r="B140" s="14">
         <v>110.101997375</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="14">
         <v>110.099998474</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+      <c r="D140" s="14">
+        <v>110.097000122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="12">
         <v>41931</v>
       </c>
-      <c r="B141" s="12">
+      <c r="B141" s="14">
         <v>110.162002563</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="14">
         <v>110.16000366199999</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
+      <c r="D141" s="14">
+        <v>110.15599822999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="12">
         <v>41932</v>
       </c>
-      <c r="B142" s="12">
+      <c r="B142" s="14">
         <v>110.222999573</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="14">
         <v>110.220001221</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+      <c r="D142" s="14">
+        <v>110.216003418</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="12">
         <v>41933</v>
       </c>
-      <c r="B143" s="12">
+      <c r="B143" s="14">
         <v>110.174003601</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="14">
         <v>110.174003601</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+      <c r="D143" s="14">
+        <v>110.172996521</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="12">
         <v>41934</v>
       </c>
-      <c r="B144" s="12">
+      <c r="B144" s="14">
         <v>110.245002747</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="14">
         <v>110.244003296</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="D144" s="14">
+        <v>110.24299621599999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="12">
         <v>41935</v>
       </c>
-      <c r="B145" s="12">
+      <c r="B145" s="14">
         <v>110.35299682599999</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="14">
         <v>110.35399627699999</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
+      <c r="D145" s="14">
+        <v>110.356002808</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="12">
         <v>41936</v>
       </c>
-      <c r="B146" s="12">
+      <c r="B146" s="14">
         <v>110.475997925</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="14">
         <v>110.476997375</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
+      <c r="D146" s="14">
+        <v>110.480003357</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="12">
         <v>41937</v>
       </c>
-      <c r="B147" s="12">
+      <c r="B147" s="14">
         <v>110.597000122</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="14">
         <v>110.597000122</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
+      <c r="D147" s="14">
+        <v>110.598999023</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="12">
         <v>41938</v>
       </c>
-      <c r="B148" s="12">
+      <c r="B148" s="14">
         <v>110.71499633800001</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="14">
         <v>110.71499633800001</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
+      <c r="D148" s="14">
+        <v>110.716003418</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="12">
         <v>41939</v>
       </c>
-      <c r="B149" s="12">
+      <c r="B149" s="14">
         <v>110.723999023</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="14">
         <v>110.724998474</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
+      <c r="D149" s="14">
+        <v>110.725997925</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="12">
         <v>41940</v>
       </c>
-      <c r="B150" s="12">
+      <c r="B150" s="14">
         <v>110.717002869</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="14">
         <v>110.717002869</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
+      <c r="D150" s="14">
+        <v>110.71900177000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="12">
         <v>41941</v>
       </c>
-      <c r="B151" s="12">
+      <c r="B151" s="14">
         <v>110.644996643</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="14">
         <v>110.644996643</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="2">
+      <c r="D151" s="14">
+        <v>110.644996643</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="12">
         <v>41942</v>
       </c>
-      <c r="B152" s="12">
+      <c r="B152" s="14">
         <v>110.560997009</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="14">
         <v>110.559997559</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
+      <c r="D152" s="14">
+        <v>110.559997559</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="12">
         <v>41943</v>
       </c>
-      <c r="B153" s="12">
+      <c r="B153" s="14">
         <v>110.474998474</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="14">
         <v>110.474998474</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
+      <c r="D153" s="14">
+        <v>110.472999573</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="12">
         <v>41944</v>
       </c>
-      <c r="B154" s="12">
+      <c r="B154" s="14">
         <v>110.38200378400001</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="14">
         <v>110.379997253</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
+      <c r="D154" s="14">
+        <v>110.37699890099999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="12">
         <v>41945</v>
       </c>
-      <c r="B155" s="12">
+      <c r="B155" s="14">
         <v>110.28500366199999</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="14">
         <v>110.282997131</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="2">
+      <c r="D155" s="14">
+        <v>110.277999878</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="12">
         <v>41946</v>
       </c>
-      <c r="B156" s="12">
+      <c r="B156" s="14">
         <v>110.24700164799999</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="14">
         <v>110.244003296</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
+      <c r="D156" s="14">
+        <v>110.236999512</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="12">
         <v>41947</v>
       </c>
-      <c r="B157" s="12">
+      <c r="B157" s="14">
         <v>110.162002563</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="14">
         <v>110.16000366199999</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
+      <c r="D157" s="14">
+        <v>110.15599822999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="12">
         <v>41948</v>
       </c>
-      <c r="B158" s="12">
+      <c r="B158" s="14">
         <v>110.097999573</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="14">
         <v>110.096000671</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="2">
+      <c r="D158" s="14">
+        <v>110.092002869</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="12">
         <v>41949</v>
       </c>
-      <c r="B159" s="12">
+      <c r="B159" s="14">
         <v>110.042999268</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="14">
         <v>110.04100036600001</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
+      <c r="D159" s="14">
+        <v>110.037002563</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="12">
         <v>41950</v>
       </c>
-      <c r="B160" s="12">
+      <c r="B160" s="14">
         <v>110.01599883999999</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="14">
         <v>110.013999939</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
+      <c r="D160" s="14">
+        <v>110.010002136</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="12">
         <v>41951</v>
       </c>
-      <c r="B161" s="12">
+      <c r="B161" s="14">
         <v>109.996002197</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="14">
         <v>109.994003296</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
+      <c r="D161" s="14">
+        <v>109.990997314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="12">
         <v>41952</v>
       </c>
-      <c r="B162" s="12">
+      <c r="B162" s="14">
         <v>109.97799682599999</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="14">
         <v>109.975997925</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="2">
+      <c r="D162" s="14">
+        <v>109.972999573</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="12">
         <v>41953</v>
       </c>
-      <c r="B163" s="12">
+      <c r="B163" s="14">
         <v>109.974998474</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="14">
         <v>109.972999573</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="2">
+      <c r="D163" s="14">
+        <v>109.970001221</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="12">
         <v>41954</v>
       </c>
-      <c r="B164" s="12">
+      <c r="B164" s="14">
         <v>110.000999451</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="14">
         <v>110</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="2">
+      <c r="D164" s="14">
+        <v>109.996002197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="12">
         <v>41955</v>
       </c>
-      <c r="B165" s="12">
+      <c r="B165" s="14">
         <v>110.01599883999999</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="14">
         <v>110.013999939</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
+      <c r="D165" s="14">
+        <v>110.011001587</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="12">
         <v>41956</v>
       </c>
-      <c r="B166" s="12">
+      <c r="B166" s="14">
         <v>109.999000549</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="14">
         <v>109.99800109900001</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="2">
+      <c r="D166" s="14">
+        <v>109.996002197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="12">
         <v>41957</v>
       </c>
-      <c r="B167" s="12">
+      <c r="B167" s="14">
         <v>109.98799896200001</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="14">
         <v>109.986999512</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="2">
+      <c r="D167" s="14">
+        <v>109.98400116000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="12">
         <v>41958</v>
       </c>
-      <c r="B168" s="12">
+      <c r="B168" s="14">
         <v>109.976997375</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="14">
         <v>109.974998474</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
+      <c r="D168" s="14">
+        <v>109.972000122</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="12">
         <v>41959</v>
       </c>
-      <c r="B169" s="12">
+      <c r="B169" s="14">
         <v>109.96499633800001</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="14">
         <v>109.96399688699999</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="2">
+      <c r="D169" s="14">
+        <v>109.959999084</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="12">
         <v>41960</v>
       </c>
-      <c r="B170" s="12">
+      <c r="B170" s="14">
         <v>109.947998047</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="14">
         <v>109.94599914600001</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="2">
+      <c r="D170" s="14">
+        <v>109.943000793</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="12">
         <v>41961</v>
       </c>
-      <c r="B171" s="12">
+      <c r="B171" s="14">
         <v>109.996002197</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="14">
         <v>109.995002747</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
+      <c r="D171" s="14">
+        <v>109.990997314</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="12">
         <v>41962</v>
       </c>
-      <c r="B172" s="12">
+      <c r="B172" s="14">
         <v>110.060997009</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="14">
         <v>110.059997559</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
+      <c r="D172" s="14">
+        <v>110.057998657</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="12">
         <v>41963</v>
       </c>
-      <c r="B173" s="12">
+      <c r="B173" s="14">
         <v>110.12300109900001</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="14">
         <v>110.12200164799999</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="2">
+      <c r="D173" s="14">
+        <v>110.120002747</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="12">
         <v>41964</v>
       </c>
-      <c r="B174" s="12">
+      <c r="B174" s="14">
         <v>110.111999512</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="14">
         <v>110.111000061</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="2">
+      <c r="D174" s="14">
+        <v>110.11000061</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="12">
         <v>41965</v>
       </c>
-      <c r="B175" s="12">
+      <c r="B175" s="14">
         <v>110.082000732</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="14">
         <v>110.081001282</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
+      <c r="D175" s="14">
+        <v>110.080001831</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="12">
         <v>41966</v>
       </c>
-      <c r="B176" s="12">
+      <c r="B176" s="14">
         <v>110.04699707</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="14">
         <v>110.044998169</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="2">
+      <c r="D176" s="14">
+        <v>110.041999817</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="12">
         <v>41967</v>
       </c>
-      <c r="B177" s="12">
+      <c r="B177" s="14">
         <v>109.999000549</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="14">
         <v>109.99800109900001</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
+      <c r="D177" s="14">
+        <v>109.994003296</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="12">
         <v>41968</v>
       </c>
-      <c r="B178" s="12">
+      <c r="B178" s="14">
         <v>109.972999573</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="14">
         <v>109.971000671</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="2">
+      <c r="D178" s="14">
+        <v>109.96800231899999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="12">
         <v>41969</v>
       </c>
-      <c r="B179" s="12">
+      <c r="B179" s="14">
         <v>109.96499633800001</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="14">
         <v>109.962997437</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
+      <c r="D179" s="14">
+        <v>109.95899963399999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="12">
         <v>41970</v>
       </c>
-      <c r="B180" s="12">
+      <c r="B180" s="14">
         <v>109.934997559</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="14">
         <v>109.933998108</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="2">
+      <c r="D180" s="14">
+        <v>109.93099975600001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="12">
         <v>41971</v>
       </c>
-      <c r="B181" s="12">
+      <c r="B181" s="14">
         <v>109.89199829099999</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="14">
         <v>109.89099883999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
+      <c r="D181" s="14">
+        <v>109.888000488</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="12">
         <v>41972</v>
       </c>
-      <c r="B182" s="12">
+      <c r="B182" s="14">
         <v>109.846000671</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="14">
         <v>109.84400177000001</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="2">
+      <c r="D182" s="14">
+        <v>109.841003418</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="12">
         <v>41973</v>
       </c>
-      <c r="B183" s="12">
+      <c r="B183" s="14">
         <v>109.797996521</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="14">
         <v>109.79699707</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="2">
+      <c r="D183" s="14">
+        <v>109.793998718</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="12">
         <v>41974</v>
       </c>
-      <c r="B184" s="12">
+      <c r="B184" s="14">
         <v>109.78600311300001</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="14">
         <v>109.783996582</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="2">
+      <c r="D184" s="14">
+        <v>109.78099822999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="12">
         <v>41975</v>
       </c>
-      <c r="B185" s="12">
+      <c r="B185" s="14">
         <v>109.825996399</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="14">
         <v>109.823997498</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="2">
+      <c r="D185" s="14">
+        <v>109.81999969500001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="12">
         <v>41976</v>
       </c>
-      <c r="B186" s="12">
+      <c r="B186" s="14">
         <v>109.830001831</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="14">
         <v>109.82800293</v>
+      </c>
+      <c r="D186" s="14">
+        <v>109.823997498</v>
       </c>
     </row>
   </sheetData>
